--- a/test-files/adjacency-matrix-modifications/extra-data-random-cell-network-only-output.xlsx
+++ b/test-files/adjacency-matrix-modifications/extra-data-random-cell-network-only-output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2860" yWindow="560" windowWidth="25040" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
